--- a/statistical_analysis_instance_complexity.xlsx
+++ b/statistical_analysis_instance_complexity.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Statistical Analysis</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Cliff effect size</t>
   </si>
   <si>
-    <t>Code Complexity (AST changes)</t>
+    <t>code&amp;comment2code -&gt; Code Complexity (AST changes)</t>
   </si>
   <si>
     <t>All</t>
@@ -37,19 +37,25 @@
     <t>CodeReviewer</t>
   </si>
   <si>
-    <t>Comment Complexity (# tokens)</t>
+    <t>code2comment -&gt; Comment Complexity (# tokens)</t>
   </si>
   <si>
     <t>CommentFinder</t>
+  </si>
+  <si>
+    <t>code2comment -&gt; Code Complexity (AST changes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="60" formatCode="0.0#############################################################E+00"/>
+    <numFmt numFmtId="61" formatCode="0.0#########E+00"/>
+    <numFmt numFmtId="62" formatCode="0.0#######E+00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -121,7 +127,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -150,6 +156,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="62" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1199,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1319,11 +1334,52 @@
         <v>-0.6</v>
       </c>
     </row>
+    <row r="12" ht="21.25" customHeight="1">
+      <c r="B12" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" ht="21.25" customHeight="1">
+      <c r="B13" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4.434089e-56</v>
+      </c>
+      <c r="D13" s="9">
+        <v>-0.1941853</v>
+      </c>
+    </row>
+    <row r="14" ht="21.25" customHeight="1">
+      <c r="B14" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.0002513172</v>
+      </c>
+      <c r="D14" s="9">
+        <v>-0.232217</v>
+      </c>
+    </row>
+    <row r="15" ht="21.25" customHeight="1">
+      <c r="B15" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.00738188</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-0.1646046</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
